--- a/sightline/BatchFiles/InvalidBatchFiles/Batch_columnHeader_Error_Header_OrderCHange_MS.xlsx
+++ b/sightline/BatchFiles/InvalidBatchFiles/Batch_columnHeader_Error_Header_OrderCHange_MS.xlsx
@@ -1,48 +1,90 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B189EF05-6336-4894-980D-21BF46A18A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DD6734-3EEB-438B-B02E-15083C9EBBA8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191028"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="28">
-  <si>
-    <t>Name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="36">
+  <si>
+    <t>Document Content</t>
   </si>
   <si>
     <t>WorkProduct</t>
   </si>
   <si>
-    <t>Include Family Members</t>
-  </si>
-  <si>
-    <t>Document Content</t>
+    <t>Basic Content Search without Family Members Included</t>
+  </si>
+  <si>
+    <t>pipeline OR gas</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Basic Content Search with Family Members Included</t>
   </si>
   <si>
     <t>Y</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Wildcard Search</t>
   </si>
   <si>
     <t>pipeli*</t>
   </si>
   <si>
-    <t>pipeline OR gas</t>
+    <t>Exact Phrase Search</t>
+  </si>
+  <si>
+    <t>"gas pipeline"</t>
+  </si>
+  <si>
+    <t>Metadata Not Null Value Search</t>
+  </si>
+  <si>
+    <t>_exists_:MasterDate</t>
+  </si>
+  <si>
+    <t>Min Max Date Range Search In MasterDate Field</t>
+  </si>
+  <si>
+    <t>MasterDate: [2014-01-01 TO 2016-12-31]</t>
+  </si>
+  <si>
+    <t>Min Max Count Range Search In DupeCount Field</t>
+  </si>
+  <si>
+    <t>DupeCount: [2 TO 1000]</t>
+  </si>
+  <si>
+    <t>Fuzzy Logic Search</t>
+  </si>
+  <si>
+    <t>pipelnie~</t>
+  </si>
+  <si>
+    <t>Proximity Search of pipeline and gas within 5 words of each other</t>
+  </si>
+  <si>
+    <t>"pipeline gas"~5</t>
+  </si>
+  <si>
+    <t>Finding Date Reference In Document Body</t>
+  </si>
+  <si>
+    <t>"01/01/2015"</t>
   </si>
   <si>
     <t>Basic Work Product Search</t>
@@ -54,52 +96,36 @@
     <t>Combined Content Search and Work Product Search</t>
   </si>
   <si>
-    <t>Metadata Not Null Value Search</t>
-  </si>
-  <si>
-    <t>_exists_:MasterDate</t>
-  </si>
-  <si>
-    <t>MasterDate: [2014-01-01 TO 2016-12-31]</t>
-  </si>
-  <si>
-    <t>DupeCount: [2 TO 1000]</t>
-  </si>
-  <si>
-    <t>Fuzzy Logic Search</t>
-  </si>
-  <si>
-    <t>Basic Content Search without Family Members Included</t>
-  </si>
-  <si>
-    <t>Basic Content Search with Family Members Included</t>
-  </si>
-  <si>
-    <t>"pipeline gas"~5</t>
-  </si>
-  <si>
-    <t>Proximity Search of pipeline and gas within 5 words of each other</t>
-  </si>
-  <si>
-    <t>pipelnie~</t>
-  </si>
-  <si>
-    <t>Exact Phrase Search</t>
-  </si>
-  <si>
-    <t>"gas pipeline"</t>
-  </si>
-  <si>
-    <t>Min Max Date Range Search In MasterDate Field</t>
-  </si>
-  <si>
-    <t>Min Max Count Range Search In DupeCount Field</t>
-  </si>
-  <si>
-    <t>Finding Date Reference In Document Body</t>
-  </si>
-  <si>
-    <t>"01/01/2015"</t>
+    <t>Concept Search Text</t>
+  </si>
+  <si>
+    <t>Search Name</t>
+  </si>
+  <si>
+    <t>Include Family Members
+(If Blank, Default is N)</t>
+  </si>
+  <si>
+    <t>Minimum Confidence Score for Concept Searches (%)
+(If Blank, System Default is 70%)</t>
+  </si>
+  <si>
+    <t>Combined Concept Search and Work Product Search</t>
+  </si>
+  <si>
+    <t>Basic Concept Search</t>
+  </si>
+  <si>
+    <t>Bribery and corruption are bad for business</t>
+  </si>
+  <si>
+    <t>bribery OR corruption</t>
+  </si>
+  <si>
+    <t>Combined Concept Search with Date Range Search</t>
+  </si>
+  <si>
+    <t>Combined Content, Concept, and Work Product Searches</t>
   </si>
 </sst>
 </file>
@@ -147,12 +173,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -493,174 +527,251 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="59.5546875" customWidth="1"/>
     <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="32.44140625" customWidth="1"/>
-    <col min="4" max="4" width="21.88671875" customWidth="1"/>
+    <col min="3" max="3" width="40.88671875" customWidth="1"/>
+    <col min="4" max="4" width="29.109375" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" customWidth="1"/>
+    <col min="6" max="6" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="E12" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="3">
+        <v>75</v>
+      </c>
+      <c r="F14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="5">
+        <v>90</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
+      <c r="C16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="5">
+        <v>80</v>
+      </c>
+      <c r="F16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="5">
+        <v>50</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -669,169 +780,251 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53293718-D918-4B26-9B4C-3C5FDA66B6E1}">
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28328787-D37F-4C6B-A07F-3DF18CFD5B84}">
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="59.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.88671875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="23.109375" style="1"/>
+    <col min="1" max="1" width="40.6640625" customWidth="1"/>
+    <col min="2" max="2" width="59.5546875" customWidth="1"/>
+    <col min="3" max="3" width="40.88671875" customWidth="1"/>
+    <col min="4" max="4" width="29.109375" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" customWidth="1"/>
+    <col min="6" max="6" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="E12" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="3">
+        <v>75</v>
+      </c>
+      <c r="F14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="5">
+        <v>90</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>4</v>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="5">
+        <v>80</v>
+      </c>
+      <c r="F16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="5">
+        <v>50</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
